--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-26.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G2" t="n">
         <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
         <v>3.95</v>
@@ -709,7 +709,7 @@
         <v>2.56</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>2.18</v>
@@ -721,10 +721,10 @@
         <v>1.86</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>960</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>32</v>
@@ -733,19 +733,19 @@
         <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>
@@ -754,25 +754,25 @@
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
         <v>2.88</v>
@@ -817,7 +817,7 @@
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -853,7 +853,7 @@
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.09</v>
-      </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
         <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
         <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
         <v>1.63</v>
@@ -1108,16 +1108,16 @@
         <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
         <v>1.44</v>
@@ -1126,58 +1126,58 @@
         <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -1225,16 +1225,16 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.68</v>
@@ -1243,16 +1243,16 @@
         <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
         <v>1.27</v>
@@ -1261,58 +1261,58 @@
         <v>1.93</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G8" t="n">
         <v>4.3</v>
@@ -1492,7 +1492,7 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.33</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
         <v>1.97</v>
@@ -1621,7 +1621,7 @@
         <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
@@ -1633,91 +1633,91 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
         <v>2.74</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1780,7 +1780,7 @@
         <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
         <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="G12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I12" t="n">
         <v>2.04</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2050,13 +2050,13 @@
         <v>1.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2068,7 +2068,7 @@
         <v>1.96</v>
       </c>
       <c r="W12" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
         <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.08</v>
+        <v>2.06</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
         <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2434,100 +2434,100 @@
         <v>1000</v>
       </c>
       <c r="J15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" t="n">
         <v>1.01</v>
       </c>
-      <c r="K15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.01</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="G16" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="I16" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="17">
@@ -2704,100 +2704,100 @@
         <v>1000</v>
       </c>
       <c r="J17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.01</v>
       </c>
-      <c r="K17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.01</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H19" t="n">
         <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
@@ -3145,22 +3145,22 @@
         <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB20" t="n">
         <v>7</v>
@@ -3169,40 +3169,40 @@
         <v>6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="n">
         <v>38</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.01</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3370,109 +3370,109 @@
         <v>1.19</v>
       </c>
       <c r="G22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.21</v>
       </c>
-      <c r="H22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3511,7 +3511,7 @@
         <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
         <v>1.21</v>
@@ -3520,94 +3520,94 @@
         <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.01</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,118 +3637,118 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.25</v>
       </c>
-      <c r="G24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.58</v>
-      </c>
       <c r="K24" t="n">
-        <v>6.6</v>
+        <v>110</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q24" t="n">
         <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.8</v>
       </c>
-      <c r="G25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Preussen Munster</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.06</v>
+        <v>3.85</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>6.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.85</v>
+        <v>1.86</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Preussen Munster</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.85</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hoffenheim II</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.77</v>
+        <v>3.75</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4318,7 +4318,7 @@
         <v>2.16</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
         <v>3.65</v>
@@ -4327,7 +4327,7 @@
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Hoffenheim II</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>2.16</v>
       </c>
       <c r="H30" t="n">
-        <v>1.43</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>1.48</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>5.3</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.96</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>9.6</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>1.39</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>1.42</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>2.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>2.28</v>
       </c>
       <c r="I34" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5248,12 +5248,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SV Ried</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rapid Vienna</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="G37" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="n">
         <v>2.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,31 +5518,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>RZ Pellets WAC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.98</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,31 +5788,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="G40" t="n">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="H40" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J40" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.3</v>
+        <v>2.98</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Austrian Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,31 +5923,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RZ Pellets WAC</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="G41" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>2.24</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Austrian Bundesliga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,31 +6058,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>SV Ried</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Rapid Vienna</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,36 +6188,36 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rakow Czestochowa</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.93</v>
+        <v>1.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Rakow Czestochowa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.76</v>
+        <v>1.58</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="H44" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="G45" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.7</v>
+        <v>2.98</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R45" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6598,61 +6598,61 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="G46" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S46" t="n">
         <v>5.1</v>
       </c>
-      <c r="H46" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U46" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,64 +6661,64 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AA46" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD46" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
         <v>22</v>
       </c>
       <c r="AI46" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AK46" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AL46" t="n">
-        <v>100</v>
+        <v>790</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN46" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AO46" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.35</v>
+        <v>4.8</v>
       </c>
       <c r="G47" t="n">
-        <v>1.38</v>
+        <v>4.9</v>
       </c>
       <c r="H47" t="n">
-        <v>9.4</v>
+        <v>1.93</v>
       </c>
       <c r="I47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z47" t="n">
         <v>11</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>100</v>
-      </c>
       <c r="AA47" t="n">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF47" t="n">
         <v>38</v>
       </c>
-      <c r="AE47" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="n">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="AK47" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM47" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Icelandic Urvalsdeild</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,64 +6931,64 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Icelandic Urvalsdeild</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,61 +7003,61 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P49" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,62 +7138,62 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="G50" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U50" t="n">
         <v>1.85</v>
       </c>
-      <c r="H50" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
@@ -7201,58 +7201,58 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Y50" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>960</v>
+        <v>430</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC50" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF50" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD50" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF50" t="n">
+      <c r="AG50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>11</v>
       </c>
-      <c r="AG50" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>21</v>
-      </c>
       <c r="AK50" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL50" t="n">
         <v>38</v>
       </c>
       <c r="AM50" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN50" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AO50" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7273,28 +7273,28 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>1.84</v>
       </c>
       <c r="G51" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.6</v>
       </c>
-      <c r="H51" t="n">
-        <v>1.89</v>
-      </c>
       <c r="I51" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>4.1</v>
@@ -7303,31 +7303,31 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P51" t="n">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="R51" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="S51" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="T51" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U51" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,64 +7336,64 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA51" t="n">
-        <v>21</v>
+        <v>960</v>
       </c>
       <c r="AB51" t="n">
-        <v>19.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC51" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AF51" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ51" t="n">
-        <v>960</v>
+        <v>21</v>
       </c>
       <c r="AK51" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO51" t="n">
         <v>75</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>48</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.98</v>
+        <v>4.6</v>
       </c>
       <c r="G52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z52" t="n">
         <v>12</v>
       </c>
-      <c r="H52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0</v>
-      </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7543,28 +7543,28 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J53" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K53" t="n">
         <v>1000</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,61 +7678,61 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I54" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J54" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K54" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,64 +7741,64 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,66 +7808,66 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.28</v>
+        <v>2.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="H55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N55" t="n">
         <v>3.05</v>
       </c>
-      <c r="I55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P55" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -7876,64 +7876,64 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,61 +7948,61 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Shamakhi FK</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G56" t="n">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
       <c r="R56" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -8011,64 +8011,64 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM56" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,66 +8078,66 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="G57" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="H57" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="I57" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P57" t="n">
         <v>2.22</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -8146,64 +8146,64 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,31 +8218,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FC Inter</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="H58" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="I58" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,31 +8353,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="G59" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="J59" t="n">
         <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,31 +8488,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G60" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="I60" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J60" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K60" t="n">
-        <v>3.45</v>
+        <v>980</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,49 +8623,49 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="G61" t="n">
-        <v>1.41</v>
+        <v>2.76</v>
       </c>
       <c r="H61" t="n">
-        <v>9.4</v>
+        <v>2.9</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="J61" t="n">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="K61" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8674,10 +8674,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8686,58 +8686,58 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM61" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -8791,22 +8791,22 @@
         <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="O62" t="n">
         <v>1.24</v>
       </c>
       <c r="P62" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="R62" t="n">
         <v>1.35</v>
       </c>
       <c r="S62" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8911,13 +8911,13 @@
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G64" t="n">
         <v>2.04</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -9187,7 +9187,7 @@
         <v>3.15</v>
       </c>
       <c r="K65" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,19 +9196,19 @@
         <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O65" t="n">
         <v>1.25</v>
       </c>
       <c r="P65" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R65" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S65" t="n">
         <v>2.68</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G66" t="n">
         <v>1.31</v>
       </c>
       <c r="H66" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="I66" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="J66" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="K66" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9448,16 +9448,16 @@
         <v>2.36</v>
       </c>
       <c r="H67" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K67" t="n">
         <v>4.9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K67" t="n">
-        <v>5.1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="G68" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="H68" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="I68" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="J68" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="K68" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>1.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H69" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I69" t="n">
         <v>2.78</v>
       </c>
       <c r="J69" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="K69" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G72" t="n">
         <v>2.1</v>
@@ -10126,13 +10126,13 @@
         <v>1.32</v>
       </c>
       <c r="I72" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J72" t="n">
         <v>3.9</v>
       </c>
       <c r="K72" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10150,7 +10150,7 @@
         <v>2.16</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G73" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H73" t="n">
         <v>3.25</v>
@@ -10264,10 +10264,10 @@
         <v>4.4</v>
       </c>
       <c r="J73" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K73" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10387,13 +10387,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I74" t="n">
         <v>2.54</v>
@@ -10402,7 +10402,7 @@
         <v>3.5</v>
       </c>
       <c r="K74" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G75" t="n">
         <v>1000</v>
@@ -10531,10 +10531,10 @@
         <v>1.27</v>
       </c>
       <c r="I75" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J75" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K75" t="n">
         <v>1000</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>2.26</v>
       </c>
       <c r="H76" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I76" t="n">
         <v>3.75</v>
@@ -10681,25 +10681,25 @@
         <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P76" t="n">
         <v>1.84</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R76" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S76" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T76" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U76" t="n">
         <v>2.06</v>
@@ -10720,7 +10720,7 @@
         <v>27</v>
       </c>
       <c r="AA76" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB76" t="n">
         <v>9.199999999999999</v>
@@ -10729,10 +10729,10 @@
         <v>8</v>
       </c>
       <c r="AD76" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE76" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF76" t="n">
         <v>14</v>
@@ -10744,7 +10744,7 @@
         <v>19</v>
       </c>
       <c r="AI76" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ76" t="n">
         <v>29</v>
@@ -10792,16 +10792,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G77" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I77" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J77" t="n">
         <v>3.65</v>
@@ -10816,7 +10816,7 @@
         <v>1.05</v>
       </c>
       <c r="N77" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.25</v>
@@ -10825,19 +10825,19 @@
         <v>2.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R77" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S77" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T77" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U77" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10846,58 +10846,58 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z77" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA77" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB77" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD77" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE77" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF77" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AG77" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH77" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI77" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK77" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL77" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM77" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN77" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO77" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -10939,7 +10939,7 @@
         <v>3.05</v>
       </c>
       <c r="J78" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K78" t="n">
         <v>3.3</v>
@@ -10960,7 +10960,7 @@
         <v>1.68</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R78" t="n">
         <v>1.26</v>
@@ -10990,7 +10990,7 @@
         <v>20</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB78" t="n">
         <v>9.199999999999999</v>
@@ -11002,7 +11002,7 @@
         <v>14</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF78" t="n">
         <v>17.5</v>
@@ -11014,25 +11014,25 @@
         <v>20</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK78" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM78" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN78" t="n">
         <v>38</v>
       </c>
       <c r="AO78" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79">
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11332,13 +11332,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G81" t="n">
         <v>2.48</v>
       </c>
       <c r="H81" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
         <v>1000</v>
@@ -11347,7 +11347,7 @@
         <v>1.68</v>
       </c>
       <c r="K81" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11362,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G84" t="n">
         <v>2.48</v>
       </c>
-      <c r="G84" t="n">
-        <v>2.5</v>
-      </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
         <v>3.3</v>
@@ -11761,28 +11761,28 @@
         <v>1.08</v>
       </c>
       <c r="N84" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="O84" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P84" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S84" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T84" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U84" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -11791,28 +11791,28 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y84" t="n">
         <v>13</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>12</v>
       </c>
       <c r="Z84" t="n">
         <v>22</v>
       </c>
       <c r="AA84" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB84" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC84" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD84" t="n">
         <v>14.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF84" t="n">
         <v>16</v>
@@ -11821,28 +11821,28 @@
         <v>11.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ84" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL84" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM84" t="n">
         <v>95</v>
       </c>
       <c r="AN84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO84" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H86" t="n">
         <v>3.5</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q86" t="n">
         <v>1.44</v>
@@ -12142,16 +12142,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G87" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H87" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I87" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J87" t="n">
         <v>4.1</v>
@@ -12184,10 +12184,10 @@
         <v>2.54</v>
       </c>
       <c r="T87" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U87" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12211,31 +12211,31 @@
         <v>12.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD87" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE87" t="n">
         <v>55</v>
       </c>
       <c r="AF87" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG87" t="n">
         <v>10.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI87" t="n">
         <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK87" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL87" t="n">
         <v>28</v>
@@ -12244,10 +12244,10 @@
         <v>1000</v>
       </c>
       <c r="AN87" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO87" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -12421,13 +12421,13 @@
         <v>2.9</v>
       </c>
       <c r="I89" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K89" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>3.3</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>3.05</v>
       </c>
       <c r="O89" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P89" t="n">
         <v>1.68</v>
@@ -12469,10 +12469,10 @@
         <v>10.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z89" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA89" t="n">
         <v>55</v>
@@ -12481,13 +12481,13 @@
         <v>9.4</v>
       </c>
       <c r="AC89" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD89" t="n">
         <v>14</v>
       </c>
       <c r="AE89" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF89" t="n">
         <v>18</v>
@@ -12499,7 +12499,7 @@
         <v>22</v>
       </c>
       <c r="AI89" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ89" t="n">
         <v>50</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H90" t="n">
         <v>3.65</v>
@@ -12559,10 +12559,10 @@
         <v>5.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="K90" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12682,22 +12682,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J91" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K91" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -12964,10 +12964,10 @@
         <v>5.2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K93" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
       </c>
       <c r="H94" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I94" t="n">
         <v>2.96</v>
       </c>
       <c r="J94" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="K94" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>1.27</v>
       </c>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="G95" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H95" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I95" t="n">
         <v>1000</v>
       </c>
       <c r="J95" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K95" t="n">
         <v>9.6</v>
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q95" t="n">
         <v>1.01</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G96" t="n">
         <v>1.57</v>
@@ -13492,13 +13492,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G97" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I97" t="n">
         <v>3.55</v>
@@ -13636,10 +13636,10 @@
         <v>1.27</v>
       </c>
       <c r="I98" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="J98" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K98" t="n">
         <v>7.2</v>
@@ -13765,16 +13765,16 @@
         <v>1.13</v>
       </c>
       <c r="G99" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="H99" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I99" t="n">
         <v>1000</v>
       </c>
       <c r="J99" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="K99" t="n">
         <v>1000</v>
@@ -14038,7 +14038,7 @@
         <v>2.66</v>
       </c>
       <c r="H101" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I101" t="n">
         <v>4.2</v>
@@ -14047,7 +14047,7 @@
         <v>3.2</v>
       </c>
       <c r="K101" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L101" t="n">
         <v>1.01</v>
@@ -14056,22 +14056,22 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="O101" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P101" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="R101" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="S101" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="T101" t="n">
         <v>1.01</v>
@@ -14167,112 +14167,112 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="G102" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J102" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K102" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
       </c>
       <c r="M102" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N102" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O102" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P102" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="R102" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S102" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="T102" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U102" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V102" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W102" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="X102" t="n">
         <v>970</v>
       </c>
       <c r="Y102" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z102" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA102" t="n">
         <v>1000</v>
       </c>
       <c r="AB102" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD102" t="n">
         <v>36</v>
       </c>
       <c r="AE102" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF102" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI102" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ102" t="n">
         <v>970</v>
       </c>
       <c r="AK102" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL102" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM102" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN102" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO102" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103">
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="G103" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H103" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="I103" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="J103" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K103" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>1.25</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="G104" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="I104" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="J104" t="n">
         <v>3.45</v>
       </c>
       <c r="K104" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G106" t="n">
         <v>2.3</v>
@@ -14716,10 +14716,10 @@
         <v>1.77</v>
       </c>
       <c r="I106" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J106" t="n">
-        <v>1.77</v>
+        <v>2.8</v>
       </c>
       <c r="K106" t="n">
         <v>1000</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q106" t="n">
         <v>1.64</v>
@@ -14842,16 +14842,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G107" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H107" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I107" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J107" t="n">
         <v>4.1</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G108" t="n">
         <v>1.86</v>
@@ -14986,7 +14986,7 @@
         <v>1.09</v>
       </c>
       <c r="I108" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J108" t="n">
         <v>3.65</v>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q108" t="n">
         <v>1.01</v>
@@ -15118,7 +15118,7 @@
         <v>2.38</v>
       </c>
       <c r="H109" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I109" t="n">
         <v>4.5</v>
@@ -15127,7 +15127,7 @@
         <v>2.8</v>
       </c>
       <c r="K109" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="F111" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G111" t="n">
         <v>2.18</v>
-      </c>
-      <c r="G111" t="n">
-        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>3.5</v>
@@ -15415,7 +15415,7 @@
         <v>2.24</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R111" t="n">
         <v>1.5</v>
@@ -15451,7 +15451,7 @@
         <v>12.5</v>
       </c>
       <c r="AC111" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD111" t="n">
         <v>16</v>
@@ -15466,7 +15466,7 @@
         <v>11.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI111" t="n">
         <v>44</v>
@@ -15481,7 +15481,7 @@
         <v>32</v>
       </c>
       <c r="AM111" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN111" t="n">
         <v>13.5</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G112" t="n">
         <v>3.7</v>
@@ -15529,7 +15529,7 @@
         <v>2.4</v>
       </c>
       <c r="J112" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K112" t="n">
         <v>3.3</v>
@@ -15538,32 +15538,32 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N112" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O112" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P112" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="R112" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S112" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U112" t="n">
         <v>2</v>
       </c>
-      <c r="U112" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V112" t="n">
         <v>0</v>
       </c>
@@ -15571,58 +15571,58 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y112" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z112" t="n">
         <v>14.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC112" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD112" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG112" t="n">
         <v>15.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ112" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK112" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL112" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM112" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN112" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO112" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G113" t="n">
         <v>4.4</v>
@@ -15661,13 +15661,13 @@
         <v>2.14</v>
       </c>
       <c r="I113" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K113" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -15685,7 +15685,7 @@
         <v>1.63</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -15922,19 +15922,19 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G115" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H115" t="n">
-        <v>1.11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I115" t="n">
         <v>11.5</v>
       </c>
       <c r="J115" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K115" t="n">
         <v>5.3</v>
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q115" t="n">
         <v>1.92</v>
@@ -16192,22 +16192,22 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="H117" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I117" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
         <v>3.45</v>
       </c>
       <c r="K117" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16225,7 +16225,7 @@
         <v>1.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G118" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H118" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I118" t="n">
         <v>5.8</v>
@@ -16342,7 +16342,7 @@
         <v>3.3</v>
       </c>
       <c r="K118" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -16357,10 +16357,10 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -16468,7 +16468,7 @@
         <v>4.5</v>
       </c>
       <c r="H119" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I119" t="n">
         <v>2.9</v>
@@ -16477,7 +16477,7 @@
         <v>2.76</v>
       </c>
       <c r="K119" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L119" t="n">
         <v>1.01</v>
@@ -16486,19 +16486,19 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O119" t="n">
         <v>1.44</v>
       </c>
       <c r="P119" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q119" t="n">
         <v>2.12</v>
       </c>
       <c r="R119" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S119" t="n">
         <v>3.75</v>
@@ -16597,22 +16597,22 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G120" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H120" t="n">
         <v>2.5</v>
       </c>
       <c r="I120" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J120" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="K120" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -16630,7 +16630,7 @@
         <v>1.59</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -16732,10 +16732,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G121" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H121" t="n">
         <v>6.4</v>
@@ -16744,10 +16744,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J121" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K121" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -16762,10 +16762,10 @@
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="Q121" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -16870,16 +16870,16 @@
         <v>1.94</v>
       </c>
       <c r="G122" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H122" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I122" t="n">
         <v>4.7</v>
       </c>
       <c r="J122" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K122" t="n">
         <v>5.2</v>
@@ -17272,22 +17272,22 @@
         </is>
       </c>
       <c r="F125" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G125" t="n">
         <v>1.9</v>
       </c>
-      <c r="G125" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H125" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I125" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J125" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K125" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -17302,10 +17302,10 @@
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
@@ -17407,22 +17407,22 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G126" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H126" t="n">
         <v>3.95</v>
       </c>
       <c r="I126" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J126" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K126" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="Q126" t="n">
         <v>2.04</v>
